--- a/.init/profiles.xlsx
+++ b/.init/profiles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coding\django-yolobuilds\.init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FBF963-08EA-4EA6-AD21-E233DA609303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2233D-E43B-48DD-9F92-CC522BFEBAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="877" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13788" yWindow="252" windowWidth="9252" windowHeight="12252" tabRatio="877" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="agency" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="330">
   <si>
     <t>aespinoza</t>
   </si>
@@ -234,18 +234,6 @@
     <t>pam.hedrick@yolocounty.org</t>
   </si>
   <si>
-    <t>sdoolittle</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Doolittle</t>
-  </si>
-  <si>
-    <t>scott.doolittle@yolocounty.org</t>
-  </si>
-  <si>
     <t>scastagnola</t>
   </si>
   <si>
@@ -525,12 +513,6 @@
     <t>Capay Fire</t>
   </si>
   <si>
-    <t>agency_option_full</t>
-  </si>
-  <si>
-    <t>agency_option_short</t>
-  </si>
-  <si>
     <t>Sheriff-Coroners</t>
   </si>
   <si>
@@ -609,27 +591,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Department of Community Services</t>
-  </si>
-  <si>
-    <t>DCS</t>
-  </si>
-  <si>
-    <t>County Administrator</t>
-  </si>
-  <si>
-    <t>CAO</t>
-  </si>
-  <si>
-    <t>Agriculture Weights &amp; Measure</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>Assessor-Clerk/Recorder-Elections</t>
-  </si>
-  <si>
     <t>ACE</t>
   </si>
   <si>
@@ -711,12 +672,6 @@
     <t>ICC</t>
   </si>
   <si>
-    <t>Contractors State License Board</t>
-  </si>
-  <si>
-    <t>CSLB</t>
-  </si>
-  <si>
     <t>Americal Society of Civil Engineers</t>
   </si>
   <si>
@@ -954,12 +909,6 @@
     <t>C-11</t>
   </si>
   <si>
-    <t>Electrical Contractor</t>
-  </si>
-  <si>
-    <t>C-10</t>
-  </si>
-  <si>
     <t>Drywall Contractor</t>
   </si>
   <si>
@@ -1051,6 +1000,21 @@
   </si>
   <si>
     <t>license_short</t>
+  </si>
+  <si>
+    <t>full_agency</t>
+  </si>
+  <si>
+    <t>Building Permits</t>
+  </si>
+  <si>
+    <t>Environmental Health</t>
+  </si>
+  <si>
+    <t>Integrated Waste Management</t>
+  </si>
+  <si>
+    <t>full_division</t>
   </si>
 </sst>
 </file>
@@ -1619,16 +1583,16 @@
   <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="id"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="agency_option_short"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="agency_option_full"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="agency"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="full_agency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:C18" totalsRowShown="0">
-  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:C14" totalsRowShown="0">
+  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="dept_code"/>
@@ -1639,22 +1603,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1595019-F6EA-4CAF-97A1-46337F445F5F}" name="Table16" displayName="Table16" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{B1595019-F6EA-4CAF-97A1-46337F445F5F}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B1595019-F6EA-4CAF-97A1-46337F445F5F}" name="Table16" displayName="Table16" ref="A1:D9" totalsRowShown="0">
+  <autoFilter ref="A1:D9" xr:uid="{B1595019-F6EA-4CAF-97A1-46337F445F5F}"/>
+  <tableColumns count="4">
     <tableColumn id="3" xr3:uid="{1F16DC72-76FB-4D26-94B9-1843958BA09B}" name="id"/>
     <tableColumn id="2" xr3:uid="{36E40AC7-7AAD-4B73-A03E-7B0A13BD0A54}" name="prefix"/>
     <tableColumn id="1" xr3:uid="{20811F1F-B1CD-4FEA-93B3-10809B75527A}" name="division"/>
+    <tableColumn id="4" xr3:uid="{79BEBD1E-3909-40EB-B51D-126C621C30BE}" name="full_division"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:R31" totalsRowShown="0">
-  <autoFilter ref="A1:R31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N31">
-    <sortCondition ref="B1:B31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:R30" totalsRowShown="0">
+  <autoFilter ref="A1:R30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N30">
+    <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="id"/>
@@ -1681,8 +1646,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}" name="Table6" displayName="Table6" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}" name="Table6" displayName="Table6" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}"/>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{2FDEC060-53FC-4347-AD36-ED2471A5BDAD}" name="id"/>
     <tableColumn id="1" xr3:uid="{32D96069-C0AC-4753-96EF-DDEDAB7B0369}" name="agency"/>
@@ -1693,10 +1658,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}" name="Table7" displayName="Table7" ref="A1:C54" totalsRowShown="0">
-  <autoFilter ref="A1:C54" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
-    <sortCondition ref="A1:A54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}" name="Table7" displayName="Table7" ref="A1:C53" totalsRowShown="0">
+  <autoFilter ref="A1:C53" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
+    <sortCondition ref="A1:A53"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{B433330A-F487-45A1-B9D2-FC82DE58F056}" name="id"/>
@@ -2007,7 +1972,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2019,13 +1984,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2033,10 +1998,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2044,10 +2009,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2055,10 +2020,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2066,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2077,10 +2042,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2088,10 +2053,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2099,10 +2064,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2110,10 +2075,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2121,10 +2086,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2132,10 +2097,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2143,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2154,10 +2119,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2165,10 +2130,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2181,10 +2146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2196,200 +2161,156 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2402,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,106 +2334,133 @@
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="D3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2526,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2556,58 +2504,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="M1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -3319,19 +3267,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -3363,19 +3311,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -3407,19 +3355,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -3448,22 +3396,22 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -3492,7 +3440,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -3536,7 +3484,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -3580,7 +3528,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -3592,25 +3540,25 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="G24" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
+      <c r="G24">
+        <v>123456789</v>
+      </c>
+      <c r="H24">
+        <v>56465465</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
       </c>
       <c r="K24">
-        <v>95695</v>
+        <v>95000</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -3624,22 +3572,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
         <v>101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>100</v>
       </c>
       <c r="G25">
         <v>123456789</v>
@@ -3648,7 +3596,7 @@
         <v>56465465</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
@@ -3660,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3668,13 +3616,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -3692,7 +3640,7 @@
         <v>56465465</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
@@ -3712,43 +3660,43 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>110</v>
       </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27">
-        <v>123456789</v>
-      </c>
-      <c r="H27">
-        <v>56465465</v>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="J27" t="s">
         <v>8</v>
       </c>
       <c r="K27">
-        <v>95000</v>
+        <v>95695</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3756,43 +3704,43 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>111</v>
       </c>
       <c r="C28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
         <v>112</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" t="s">
         <v>113</v>
       </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
+      <c r="G28">
+        <v>123456789</v>
+      </c>
+      <c r="H28">
+        <v>56465465</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="J28" t="s">
         <v>8</v>
       </c>
       <c r="K28">
-        <v>95695</v>
+        <v>95000</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3800,13 +3748,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
         <v>116</v>
@@ -3824,7 +3772,7 @@
         <v>56465465</v>
       </c>
       <c r="I29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -3844,13 +3792,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
         <v>120</v>
@@ -3868,7 +3816,7 @@
         <v>56465465</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -3883,50 +3831,6 @@
         <v>0</v>
       </c>
       <c r="N30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31">
-        <v>123456789</v>
-      </c>
-      <c r="H31">
-        <v>56465465</v>
-      </c>
-      <c r="I31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J31" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31">
-        <v>95000</v>
-      </c>
-      <c r="L31" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
-      <c r="N31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3940,9 +3844,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A853EE3-7D70-483E-90C6-3EBCFD90762A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3952,13 +3858,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3966,10 +3872,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3977,43 +3883,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4026,28 +3921,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256E2189-FF08-47C4-9474-5D9ABF19F6BD}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="52.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4055,10 +3950,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4066,10 +3961,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4077,10 +3972,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4088,10 +3983,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4099,10 +3994,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4110,10 +4005,10 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4121,10 +4016,10 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4132,10 +4027,10 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4143,10 +4038,10 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4154,10 +4049,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4165,10 +4060,10 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4176,10 +4071,10 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C13" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4187,10 +4082,10 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4198,10 +4093,10 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4209,10 +4104,10 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4220,10 +4115,10 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4231,406 +4126,395 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C25" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C30" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C33" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C39" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C41" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C42" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C50" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>161</v>
-      </c>
-      <c r="B54" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/.init/profiles.xlsx
+++ b/.init/profiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Coding\django-yolobuilds\.init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC2233D-E43B-48DD-9F92-CC522BFEBAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5F419C-1CBB-46D0-929B-4CA8DDF6E373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13788" yWindow="252" windowWidth="9252" windowHeight="12252" tabRatio="877" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="345">
   <si>
     <t>aespinoza</t>
   </si>
@@ -234,6 +234,18 @@
     <t>pam.hedrick@yolocounty.org</t>
   </si>
   <si>
+    <t>sdoolittle</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Doolittle</t>
+  </si>
+  <si>
+    <t>scott.doolittle@yolocounty.org</t>
+  </si>
+  <si>
     <t>scastagnola</t>
   </si>
   <si>
@@ -591,6 +603,27 @@
     <t>CC</t>
   </si>
   <si>
+    <t>Department of Community Services</t>
+  </si>
+  <si>
+    <t>DCS</t>
+  </si>
+  <si>
+    <t>County Administrator</t>
+  </si>
+  <si>
+    <t>CAO</t>
+  </si>
+  <si>
+    <t>Agriculture Weights &amp; Measure</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Assessor-Clerk/Recorder-Elections</t>
+  </si>
+  <si>
     <t>ACE</t>
   </si>
   <si>
@@ -672,6 +705,12 @@
     <t>ICC</t>
   </si>
   <si>
+    <t>Contractors State License Board</t>
+  </si>
+  <si>
+    <t>CSLB</t>
+  </si>
+  <si>
     <t>Americal Society of Civil Engineers</t>
   </si>
   <si>
@@ -907,6 +946,12 @@
   </si>
   <si>
     <t>C-11</t>
+  </si>
+  <si>
+    <t>Electrical Contractor</t>
+  </si>
+  <si>
+    <t>C-10</t>
   </si>
   <si>
     <t>Drywall Contractor</t>
@@ -1591,8 +1636,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:C14" totalsRowShown="0">
-  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="dept_code"/>
@@ -1616,10 +1661,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:R30" totalsRowShown="0">
-  <autoFilter ref="A1:R30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N30">
-    <sortCondition ref="B1:B30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:R31" totalsRowShown="0">
+  <autoFilter ref="A1:R31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N31">
+    <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="id"/>
@@ -1646,8 +1691,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}" name="Table6" displayName="Table6" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}" name="Table6" displayName="Table6" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{F5F2FAFC-7C4D-4E4E-A7F7-C482A06C18B5}"/>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{2FDEC060-53FC-4347-AD36-ED2471A5BDAD}" name="id"/>
     <tableColumn id="1" xr3:uid="{32D96069-C0AC-4753-96EF-DDEDAB7B0369}" name="agency"/>
@@ -1658,10 +1703,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}" name="Table7" displayName="Table7" ref="A1:C53" totalsRowShown="0">
-  <autoFilter ref="A1:C53" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
-    <sortCondition ref="A1:A53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}" name="Table7" displayName="Table7" ref="A1:C54" totalsRowShown="0">
+  <autoFilter ref="A1:C54" xr:uid="{DFE2318B-B23B-4075-8E2A-0854EC7E83B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="3" xr3:uid="{B433330A-F487-45A1-B9D2-FC82DE58F056}" name="id"/>
@@ -1984,13 +2029,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1998,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2009,10 +2054,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2020,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2031,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2042,10 +2087,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2053,10 +2098,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -2064,10 +2109,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -2075,10 +2120,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2086,10 +2131,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2097,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2108,10 +2153,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -2119,10 +2164,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -2130,10 +2175,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2146,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,156 +2206,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2339,16 +2428,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="D1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2356,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2370,13 +2459,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2384,13 +2473,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2398,13 +2487,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2412,13 +2501,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
         <v>203</v>
       </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2426,13 +2515,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2440,13 +2529,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2454,13 +2543,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2474,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2504,58 +2593,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" t="s">
-        <v>131</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -3267,19 +3356,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -3311,19 +3400,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -3355,19 +3444,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -3396,22 +3485,22 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -3440,7 +3529,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -3484,7 +3573,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>89</v>
@@ -3528,7 +3617,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>93</v>
@@ -3540,25 +3629,25 @@
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
       </c>
-      <c r="G24">
-        <v>123456789</v>
-      </c>
-      <c r="H24">
-        <v>56465465</v>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
         <v>8</v>
       </c>
       <c r="K24">
-        <v>95000</v>
+        <v>95695</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -3572,22 +3661,22 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
         <v>100</v>
-      </c>
-      <c r="E25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s">
-        <v>101</v>
       </c>
       <c r="G25">
         <v>123456789</v>
@@ -3596,7 +3685,7 @@
         <v>56465465</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
         <v>8</v>
@@ -3608,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="M25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3616,13 +3705,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
         <v>104</v>
@@ -3640,7 +3729,7 @@
         <v>56465465</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
         <v>8</v>
@@ -3660,43 +3749,43 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>107</v>
       </c>
       <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
         <v>108</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" t="s">
         <v>109</v>
       </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" t="s">
-        <v>6</v>
+      <c r="G27">
+        <v>123456789</v>
+      </c>
+      <c r="H27">
+        <v>56465465</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
         <v>8</v>
       </c>
       <c r="K27">
-        <v>95695</v>
+        <v>95000</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3704,43 +3793,43 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
         <v>114</v>
       </c>
-      <c r="F28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28">
-        <v>123456789</v>
-      </c>
-      <c r="H28">
-        <v>56465465</v>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
         <v>8</v>
       </c>
       <c r="K28">
-        <v>95000</v>
+        <v>95695</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3748,13 +3837,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
         <v>116</v>
@@ -3772,7 +3861,7 @@
         <v>56465465</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -3792,13 +3881,13 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>120</v>
@@ -3816,7 +3905,7 @@
         <v>56465465</v>
       </c>
       <c r="I30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -3831,6 +3920,50 @@
         <v>0</v>
       </c>
       <c r="N30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31">
+        <v>123456789</v>
+      </c>
+      <c r="H31">
+        <v>56465465</v>
+      </c>
+      <c r="I31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>95000</v>
+      </c>
+      <c r="L31" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3844,11 +3977,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A853EE3-7D70-483E-90C6-3EBCFD90762A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3858,13 +3989,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3872,10 +4003,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3883,32 +4014,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" t="s">
-        <v>211</v>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3921,10 +4063,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256E2189-FF08-47C4-9474-5D9ABF19F6BD}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3936,13 +4078,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3950,10 +4092,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3961,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3972,10 +4114,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3983,10 +4125,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3994,10 +4136,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4005,10 +4147,10 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4016,10 +4158,10 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4027,10 +4169,10 @@
         <v>99</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4038,10 +4180,10 @@
         <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4049,10 +4191,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -4060,10 +4202,10 @@
         <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -4071,10 +4213,10 @@
         <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4082,10 +4224,10 @@
         <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -4093,10 +4235,10 @@
         <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -4104,10 +4246,10 @@
         <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4115,10 +4257,10 @@
         <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4126,395 +4268,406 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C20" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C25" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C28" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C29" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C31" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B33" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B49" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>161</v>
       </c>
-      <c r="B53" t="s">
-        <v>225</v>
-      </c>
-      <c r="C53" t="s">
-        <v>224</v>
+      <c r="B54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
